--- a/data/pca/factorExposure/factorExposure_2014-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-12-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.007711624748463526</v>
+        <v>-0.01041888505043052</v>
       </c>
       <c r="C2">
-        <v>-0.0558116360077832</v>
+        <v>0.0659470384820129</v>
       </c>
       <c r="D2">
-        <v>-0.1700698386914451</v>
+        <v>-0.02640257101851384</v>
       </c>
       <c r="E2">
-        <v>-0.1286364199609599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1530177907147684</v>
+      </c>
+      <c r="F2">
+        <v>0.06615982968404666</v>
+      </c>
+      <c r="G2">
+        <v>-0.1090609823792818</v>
+      </c>
+      <c r="H2">
+        <v>-0.0661179870941383</v>
+      </c>
+      <c r="I2">
+        <v>-0.07603416561380555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.02641933687799126</v>
+        <v>-0.01642270775191064</v>
       </c>
       <c r="C4">
-        <v>-0.1359030630121811</v>
+        <v>0.1498518392555064</v>
       </c>
       <c r="D4">
-        <v>-0.1103424710661522</v>
+        <v>0.002091427887079677</v>
       </c>
       <c r="E4">
-        <v>-0.05045088483462371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1037895738690262</v>
+      </c>
+      <c r="F4">
+        <v>-0.06036014526375064</v>
+      </c>
+      <c r="G4">
+        <v>-0.05387841748595541</v>
+      </c>
+      <c r="H4">
+        <v>-0.1046816844367769</v>
+      </c>
+      <c r="I4">
+        <v>0.02692529260292002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01213147613830121</v>
+        <v>-0.02901040224136481</v>
       </c>
       <c r="C6">
-        <v>-0.05618275745835077</v>
+        <v>0.06541794785071488</v>
       </c>
       <c r="D6">
-        <v>-0.08234111391135369</v>
+        <v>-0.008842738067451849</v>
       </c>
       <c r="E6">
-        <v>-0.07349389466184948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1091417737365455</v>
+      </c>
+      <c r="F6">
+        <v>0.03388736877155372</v>
+      </c>
+      <c r="G6">
+        <v>0.01459415020630278</v>
+      </c>
+      <c r="H6">
+        <v>-0.04191630119093229</v>
+      </c>
+      <c r="I6">
+        <v>-0.02914131451742431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.01318427722498208</v>
+        <v>-0.005989139313180681</v>
       </c>
       <c r="C7">
-        <v>-0.04301150048510044</v>
+        <v>0.06214761975522577</v>
       </c>
       <c r="D7">
-        <v>-0.05329432738031754</v>
+        <v>-0.00726620181709207</v>
       </c>
       <c r="E7">
-        <v>-0.04782023569209241</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.06623880834718295</v>
+      </c>
+      <c r="F7">
+        <v>-0.02783373621409403</v>
+      </c>
+      <c r="G7">
+        <v>0.03569773974391892</v>
+      </c>
+      <c r="H7">
+        <v>-0.08444439103593286</v>
+      </c>
+      <c r="I7">
+        <v>-0.005181892650707572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.01366878756669086</v>
+        <v>0.009489660978344815</v>
       </c>
       <c r="C8">
-        <v>-0.05472149073829957</v>
+        <v>0.06375827249940635</v>
       </c>
       <c r="D8">
-        <v>-0.08504453627162988</v>
+        <v>0.01155395137305814</v>
       </c>
       <c r="E8">
-        <v>-0.09858812907047888</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.08550478089981861</v>
+      </c>
+      <c r="F8">
+        <v>-0.01838184783952816</v>
+      </c>
+      <c r="G8">
+        <v>-0.07663375707417849</v>
+      </c>
+      <c r="H8">
+        <v>-0.0224320192813425</v>
+      </c>
+      <c r="I8">
+        <v>-0.005716239033690846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01260450719436712</v>
+        <v>-0.009079225995492681</v>
       </c>
       <c r="C9">
-        <v>-0.1086668043896104</v>
+        <v>0.1168857319016597</v>
       </c>
       <c r="D9">
-        <v>-0.08981439320561452</v>
+        <v>-0.0004106094672026739</v>
       </c>
       <c r="E9">
-        <v>-0.05241692920525849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.08148807896936547</v>
+      </c>
+      <c r="F9">
+        <v>-0.01303878152883502</v>
+      </c>
+      <c r="G9">
+        <v>-0.009414827149104478</v>
+      </c>
+      <c r="H9">
+        <v>-0.1003332705089458</v>
+      </c>
+      <c r="I9">
+        <v>0.0008747416330848855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2409291191716567</v>
+        <v>-0.2464531656432024</v>
       </c>
       <c r="C10">
-        <v>0.0801906954348746</v>
+        <v>-0.07659547646878863</v>
       </c>
       <c r="D10">
-        <v>0.002124910641508314</v>
+        <v>0.004822066836363846</v>
       </c>
       <c r="E10">
-        <v>0.08775968105307699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01605909331434146</v>
+      </c>
+      <c r="F10">
+        <v>-0.009739915024036882</v>
+      </c>
+      <c r="G10">
+        <v>-0.002208927346670516</v>
+      </c>
+      <c r="H10">
+        <v>-0.03177483226469294</v>
+      </c>
+      <c r="I10">
+        <v>0.1877245367529702</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.002277728442488631</v>
+        <v>-0.01023031566832154</v>
       </c>
       <c r="C11">
-        <v>-0.04737358678264821</v>
+        <v>0.07083685164273977</v>
       </c>
       <c r="D11">
-        <v>-0.04179244052737299</v>
+        <v>0.007258354842021657</v>
       </c>
       <c r="E11">
-        <v>-0.03544086071507135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.05115319206640941</v>
+      </c>
+      <c r="F11">
+        <v>-0.01751445670442983</v>
+      </c>
+      <c r="G11">
+        <v>0.02814754319671169</v>
+      </c>
+      <c r="H11">
+        <v>-0.04016845191925826</v>
+      </c>
+      <c r="I11">
+        <v>-0.0009761464648923406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.007483081071266705</v>
+        <v>-0.01253299010465448</v>
       </c>
       <c r="C12">
-        <v>-0.0525277493905346</v>
+        <v>0.06027044833665973</v>
       </c>
       <c r="D12">
-        <v>-0.03235712427787089</v>
+        <v>-2.280900524207904e-05</v>
       </c>
       <c r="E12">
-        <v>-0.0235451367881367</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03540447476216675</v>
+      </c>
+      <c r="F12">
+        <v>0.01043554806967878</v>
+      </c>
+      <c r="G12">
+        <v>0.0313302851169512</v>
+      </c>
+      <c r="H12">
+        <v>-0.0436304628751675</v>
+      </c>
+      <c r="I12">
+        <v>0.00922926909480881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.002405449147197547</v>
+        <v>-0.002099967763315337</v>
       </c>
       <c r="C13">
-        <v>-0.0665304671850937</v>
+        <v>0.09852905056842606</v>
       </c>
       <c r="D13">
-        <v>-0.1183694645375577</v>
+        <v>-0.02832390148913334</v>
       </c>
       <c r="E13">
-        <v>-0.1247258917569445</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1608801242833479</v>
+      </c>
+      <c r="F13">
+        <v>0.09287470187896649</v>
+      </c>
+      <c r="G13">
+        <v>0.04296684560835012</v>
+      </c>
+      <c r="H13">
+        <v>-0.09438036835946303</v>
+      </c>
+      <c r="I13">
+        <v>0.09016096260436224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.006865146991024677</v>
+        <v>-0.006603553459788893</v>
       </c>
       <c r="C14">
-        <v>-0.03028023442543792</v>
+        <v>0.05986354673034618</v>
       </c>
       <c r="D14">
-        <v>-0.05614174954868272</v>
+        <v>0.01079199967269555</v>
       </c>
       <c r="E14">
-        <v>-0.06588918045390485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.1022186873355487</v>
+      </c>
+      <c r="F14">
+        <v>0.02334877022027949</v>
+      </c>
+      <c r="G14">
+        <v>0.06439158292209296</v>
+      </c>
+      <c r="H14">
+        <v>-0.1596127053502629</v>
+      </c>
+      <c r="I14">
+        <v>-0.03485885793303489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002491202393448574</v>
+        <v>0.003284697860996007</v>
       </c>
       <c r="C15">
-        <v>-0.04726436885064254</v>
+        <v>0.06276848263366872</v>
       </c>
       <c r="D15">
-        <v>-0.07625798895986928</v>
+        <v>-0.003180009963920341</v>
       </c>
       <c r="E15">
-        <v>-0.07226488423293539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.07259216781429643</v>
+      </c>
+      <c r="F15">
+        <v>-0.01049798632243211</v>
+      </c>
+      <c r="G15">
+        <v>0.01418331634004383</v>
+      </c>
+      <c r="H15">
+        <v>-0.05063169811941483</v>
+      </c>
+      <c r="I15">
+        <v>-0.01329297164956143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.005026797827464613</v>
+        <v>-0.01013248431296106</v>
       </c>
       <c r="C16">
-        <v>-0.04419258550835344</v>
+        <v>0.06082207591163262</v>
       </c>
       <c r="D16">
-        <v>-0.03281536852204676</v>
+        <v>0.0005500369164405575</v>
       </c>
       <c r="E16">
-        <v>-0.0244491765114826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.0356336130491112</v>
+      </c>
+      <c r="F16">
+        <v>-0.003762304094479575</v>
+      </c>
+      <c r="G16">
+        <v>0.03119674412789372</v>
+      </c>
+      <c r="H16">
+        <v>-0.03750585651019225</v>
+      </c>
+      <c r="I16">
+        <v>0.006925508769371193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1216,22 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1245,225 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.006256426591454704</v>
+        <v>-0.00251654646426837</v>
       </c>
       <c r="C20">
-        <v>-0.04399643155136181</v>
+        <v>0.07113389559213965</v>
       </c>
       <c r="D20">
-        <v>-0.08067142205124281</v>
+        <v>-0.01509478309808139</v>
       </c>
       <c r="E20">
-        <v>-0.03853933730312927</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.07338669780423876</v>
+      </c>
+      <c r="F20">
+        <v>-0.02672341713925851</v>
+      </c>
+      <c r="G20">
+        <v>0.05957470762246424</v>
+      </c>
+      <c r="H20">
+        <v>-0.06718001354880966</v>
+      </c>
+      <c r="I20">
+        <v>0.0003373994005723251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.004563759964556879</v>
+        <v>-0.00684056405078629</v>
       </c>
       <c r="C21">
-        <v>-0.06918063199465617</v>
+        <v>0.07549009820142612</v>
       </c>
       <c r="D21">
-        <v>-0.1084489126984598</v>
+        <v>-0.009149420312841336</v>
       </c>
       <c r="E21">
-        <v>-0.05048095442314944</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09627179771625956</v>
+      </c>
+      <c r="F21">
+        <v>0.08246242742501722</v>
+      </c>
+      <c r="G21">
+        <v>-0.006428502913007066</v>
+      </c>
+      <c r="H21">
+        <v>-0.1788794062007813</v>
+      </c>
+      <c r="I21">
+        <v>0.0433373155984627</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.01303248849876292</v>
+        <v>0.01589493791065305</v>
       </c>
       <c r="C22">
-        <v>-0.07670458773017451</v>
+        <v>0.1157741173634873</v>
       </c>
       <c r="D22">
-        <v>-0.2775300692130565</v>
+        <v>-0.07217863652648505</v>
       </c>
       <c r="E22">
-        <v>-0.1088126548260754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3078169585414689</v>
+      </c>
+      <c r="F22">
+        <v>-0.08163771014862407</v>
+      </c>
+      <c r="G22">
+        <v>-0.3357056663814512</v>
+      </c>
+      <c r="H22">
+        <v>0.414137775519679</v>
+      </c>
+      <c r="I22">
+        <v>0.03432136825194936</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.01337262798725959</v>
+        <v>0.0125130688386582</v>
       </c>
       <c r="C23">
-        <v>-0.07839319999860751</v>
+        <v>0.1197238995914795</v>
       </c>
       <c r="D23">
-        <v>-0.2765682195781207</v>
+        <v>-0.07484809244726688</v>
       </c>
       <c r="E23">
-        <v>-0.108046811885202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3033952800891179</v>
+      </c>
+      <c r="F23">
+        <v>-0.07692177781547671</v>
+      </c>
+      <c r="G23">
+        <v>-0.3254325917653905</v>
+      </c>
+      <c r="H23">
+        <v>0.3867464290988772</v>
+      </c>
+      <c r="I23">
+        <v>0.03639647152662664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.003514586375647852</v>
+        <v>-0.01191769505800389</v>
       </c>
       <c r="C24">
-        <v>-0.07741650664668281</v>
+        <v>0.08016568850211342</v>
       </c>
       <c r="D24">
-        <v>-0.03415223647208523</v>
+        <v>0.01463236623106151</v>
       </c>
       <c r="E24">
-        <v>-0.03908087990972418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04229410751822201</v>
+      </c>
+      <c r="F24">
+        <v>-0.01043844601528362</v>
+      </c>
+      <c r="G24">
+        <v>0.02704239446469403</v>
+      </c>
+      <c r="H24">
+        <v>-0.05808527368817131</v>
+      </c>
+      <c r="I24">
+        <v>0.001957696577193368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.008106542814537454</v>
+        <v>-0.01630057798582435</v>
       </c>
       <c r="C25">
-        <v>-0.06325105210212713</v>
+        <v>0.07181709521658025</v>
       </c>
       <c r="D25">
-        <v>-0.03457682313704166</v>
+        <v>0.005793964259972463</v>
       </c>
       <c r="E25">
-        <v>-0.01683745695181026</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03536967717314458</v>
+      </c>
+      <c r="F25">
+        <v>-0.01261990630460688</v>
+      </c>
+      <c r="G25">
+        <v>0.02493655931685108</v>
+      </c>
+      <c r="H25">
+        <v>-0.03902972496695867</v>
+      </c>
+      <c r="I25">
+        <v>0.01969371707537296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.000767824581808525</v>
+        <v>-0.01593597241911422</v>
       </c>
       <c r="C26">
-        <v>-0.03082556149453002</v>
+        <v>0.05288733591951775</v>
       </c>
       <c r="D26">
-        <v>-0.0489285394754809</v>
+        <v>0.0293569533003208</v>
       </c>
       <c r="E26">
-        <v>-0.05873933153420025</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.07492683325123303</v>
+      </c>
+      <c r="F26">
+        <v>-0.003189854383418844</v>
+      </c>
+      <c r="G26">
+        <v>0.02226182096460208</v>
+      </c>
+      <c r="H26">
+        <v>-0.1302511164441331</v>
+      </c>
+      <c r="I26">
+        <v>0.01510716453047909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3193891124511704</v>
+        <v>-0.3139613836739197</v>
       </c>
       <c r="C28">
-        <v>0.09559579630251432</v>
+        <v>-0.0973465342495206</v>
       </c>
       <c r="D28">
-        <v>0.003277475695318196</v>
+        <v>-0.0104246479264735</v>
       </c>
       <c r="E28">
-        <v>0.07677391362808017</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.01779878979229635</v>
+      </c>
+      <c r="F28">
+        <v>-0.03290701464633631</v>
+      </c>
+      <c r="G28">
+        <v>-0.08226769847084575</v>
+      </c>
+      <c r="H28">
+        <v>-0.06848774803019968</v>
+      </c>
+      <c r="I28">
+        <v>0.1862411617590182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002094209241148701</v>
+        <v>-0.003800647101985515</v>
       </c>
       <c r="C29">
-        <v>-0.03303642535553798</v>
+        <v>0.06301119002876554</v>
       </c>
       <c r="D29">
-        <v>-0.07389457528357314</v>
+        <v>0.004817800492658927</v>
       </c>
       <c r="E29">
-        <v>-0.08300646349603034</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.1210922542080487</v>
+      </c>
+      <c r="F29">
+        <v>0.03277531998838322</v>
+      </c>
+      <c r="G29">
+        <v>0.09043555915051232</v>
+      </c>
+      <c r="H29">
+        <v>-0.2014898429482432</v>
+      </c>
+      <c r="I29">
+        <v>-0.05858251518151205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01901587886868479</v>
+        <v>-0.0199709617768287</v>
       </c>
       <c r="C30">
-        <v>-0.1271855657181787</v>
+        <v>0.1382034255002669</v>
       </c>
       <c r="D30">
-        <v>-0.1217710220436715</v>
+        <v>0.002782674059664407</v>
       </c>
       <c r="E30">
-        <v>-0.09258834063246942</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.1135015698331748</v>
+      </c>
+      <c r="F30">
+        <v>-0.02444602164555089</v>
+      </c>
+      <c r="G30">
+        <v>-0.02468646181246517</v>
+      </c>
+      <c r="H30">
+        <v>-0.03700269020259616</v>
+      </c>
+      <c r="I30">
+        <v>-0.02862463144102522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.003181498796888433</v>
+        <v>-0.006048329820318868</v>
       </c>
       <c r="C31">
-        <v>-0.09367921598623609</v>
+        <v>0.0976776721644233</v>
       </c>
       <c r="D31">
-        <v>0.002690888733346613</v>
+        <v>0.02260236049216065</v>
       </c>
       <c r="E31">
-        <v>-0.02722866707488143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01087546928279575</v>
+      </c>
+      <c r="F31">
+        <v>0.003542127143256057</v>
+      </c>
+      <c r="G31">
+        <v>-0.01735888486455104</v>
+      </c>
+      <c r="H31">
+        <v>-0.05498576561938237</v>
+      </c>
+      <c r="I31">
+        <v>0.0213111231237882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01111570484277404</v>
+        <v>-0.01594055627697723</v>
       </c>
       <c r="C32">
-        <v>-0.05410994504824052</v>
+        <v>0.06231331681906122</v>
       </c>
       <c r="D32">
-        <v>-0.137592066997642</v>
+        <v>-0.02568941886717564</v>
       </c>
       <c r="E32">
-        <v>-0.04968187747095804</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.109648651992495</v>
+      </c>
+      <c r="F32">
+        <v>0.03412219960000868</v>
+      </c>
+      <c r="G32">
+        <v>-0.03654893626219133</v>
+      </c>
+      <c r="H32">
+        <v>-0.1049393265583208</v>
+      </c>
+      <c r="I32">
+        <v>0.2128614581658558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.00340024504725971</v>
+        <v>-0.006734928074769829</v>
       </c>
       <c r="C33">
-        <v>-0.07598838314418543</v>
+        <v>0.1017101422823193</v>
       </c>
       <c r="D33">
-        <v>-0.06282653246170862</v>
+        <v>-0.006222175886932422</v>
       </c>
       <c r="E33">
-        <v>-0.05432009447246667</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.07859749036138919</v>
+      </c>
+      <c r="F33">
+        <v>-0.003972960581971731</v>
+      </c>
+      <c r="G33">
+        <v>0.0258083488581577</v>
+      </c>
+      <c r="H33">
+        <v>-0.06156497503494063</v>
+      </c>
+      <c r="I33">
+        <v>0.03065943535290475</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.003486128050869368</v>
+        <v>-0.009172414274548004</v>
       </c>
       <c r="C34">
-        <v>-0.05017055618578233</v>
+        <v>0.05477853503837111</v>
       </c>
       <c r="D34">
-        <v>-0.02096660513452401</v>
+        <v>0.006144617335177389</v>
       </c>
       <c r="E34">
-        <v>-0.01999484185532254</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02688449005279068</v>
+      </c>
+      <c r="F34">
+        <v>0.002455315890094731</v>
+      </c>
+      <c r="G34">
+        <v>0.03128355125801965</v>
+      </c>
+      <c r="H34">
+        <v>-0.01525077494756933</v>
+      </c>
+      <c r="I34">
+        <v>0.02542099846689731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0008996901608028721</v>
+        <v>-0.00582141437290322</v>
       </c>
       <c r="C35">
-        <v>-0.004543406899476256</v>
+        <v>0.03029527019789927</v>
       </c>
       <c r="D35">
-        <v>-0.01224615533606434</v>
+        <v>-0.001999756721090731</v>
       </c>
       <c r="E35">
-        <v>-0.004981957996353119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.04546019456191325</v>
+      </c>
+      <c r="F35">
+        <v>0.002841037306075977</v>
+      </c>
+      <c r="G35">
+        <v>0.03851920544849206</v>
+      </c>
+      <c r="H35">
+        <v>-0.1144323562372123</v>
+      </c>
+      <c r="I35">
+        <v>-0.00533778891206353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.001193797386666756</v>
+        <v>-0.009303910284905048</v>
       </c>
       <c r="C36">
-        <v>-0.03219525136647448</v>
+        <v>0.04382745228754677</v>
       </c>
       <c r="D36">
-        <v>-0.04253436409594581</v>
+        <v>0.01838783440870001</v>
       </c>
       <c r="E36">
-        <v>-0.06311652752678386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.06932642065970901</v>
+      </c>
+      <c r="F36">
+        <v>-0.002124846708105017</v>
+      </c>
+      <c r="G36">
+        <v>0.01531007732758575</v>
+      </c>
+      <c r="H36">
+        <v>-0.07531580845741412</v>
+      </c>
+      <c r="I36">
+        <v>0.002804065248185288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.001865652691612351</v>
+        <v>-0.004473246945544816</v>
       </c>
       <c r="C38">
-        <v>-0.02730731037739922</v>
+        <v>0.0522619158951426</v>
       </c>
       <c r="D38">
-        <v>-0.04797062633213529</v>
+        <v>0.003949617310785915</v>
       </c>
       <c r="E38">
-        <v>-0.04776469003603874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.07364981803461644</v>
+      </c>
+      <c r="F38">
+        <v>-0.04712097440779501</v>
+      </c>
+      <c r="G38">
+        <v>-0.0002879669236881919</v>
+      </c>
+      <c r="H38">
+        <v>-0.0632852167860263</v>
+      </c>
+      <c r="I38">
+        <v>0.0403711443279372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0029323619374335</v>
+        <v>-0.008311840427302071</v>
       </c>
       <c r="C39">
-        <v>-0.09733614370058842</v>
+        <v>0.1179198562526638</v>
       </c>
       <c r="D39">
-        <v>-0.08803629375636966</v>
+        <v>0.01432790934676066</v>
       </c>
       <c r="E39">
-        <v>-0.06854529698766136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.07894854537230679</v>
+      </c>
+      <c r="F39">
+        <v>0.004876408340535272</v>
+      </c>
+      <c r="G39">
+        <v>0.04645901609514318</v>
+      </c>
+      <c r="H39">
+        <v>-0.05162487628295145</v>
+      </c>
+      <c r="I39">
+        <v>-0.04809450249341855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.0007439598351587527</v>
+        <v>-0.009265879047683671</v>
       </c>
       <c r="C40">
-        <v>-0.01735900294304517</v>
+        <v>0.05164365788533029</v>
       </c>
       <c r="D40">
-        <v>-0.07740310787477633</v>
+        <v>-0.01232202058721974</v>
       </c>
       <c r="E40">
-        <v>-0.1074794345120087</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1350063797213987</v>
+      </c>
+      <c r="F40">
+        <v>0.01749620487245957</v>
+      </c>
+      <c r="G40">
+        <v>0.07233320287538351</v>
+      </c>
+      <c r="H40">
+        <v>0.003521665872610202</v>
+      </c>
+      <c r="I40">
+        <v>0.01647225885344621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.002449013411890197</v>
+        <v>-0.01577882800715571</v>
       </c>
       <c r="C41">
-        <v>-0.02734291324698389</v>
+        <v>0.04768513077289654</v>
       </c>
       <c r="D41">
-        <v>0.00081246677443207</v>
+        <v>0.001756767531081033</v>
       </c>
       <c r="E41">
-        <v>0.006318812484168095</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.007953949239055794</v>
+      </c>
+      <c r="F41">
+        <v>-0.006975758804601453</v>
+      </c>
+      <c r="G41">
+        <v>0.01355477804166898</v>
+      </c>
+      <c r="H41">
+        <v>-0.03324570299272862</v>
+      </c>
+      <c r="I41">
+        <v>0.04799740072265135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.00831969467907615</v>
+        <v>-0.00795255446668827</v>
       </c>
       <c r="C43">
-        <v>-0.01966641657944527</v>
+        <v>0.03963798390758804</v>
       </c>
       <c r="D43">
-        <v>-0.01755456927137865</v>
+        <v>0.009909967401629556</v>
       </c>
       <c r="E43">
-        <v>-0.01504795364744205</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.03448998632139625</v>
+      </c>
+      <c r="F43">
+        <v>-0.01703412089388494</v>
+      </c>
+      <c r="G43">
+        <v>0.02026419442200307</v>
+      </c>
+      <c r="H43">
+        <v>-0.04999155494537175</v>
+      </c>
+      <c r="I43">
+        <v>0.02386027574536987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01722365833226901</v>
+        <v>-0.007040407075874523</v>
       </c>
       <c r="C44">
-        <v>-0.08083467484130233</v>
+        <v>0.09028517236457015</v>
       </c>
       <c r="D44">
-        <v>-0.1020531490367334</v>
+        <v>0.01747562752114133</v>
       </c>
       <c r="E44">
-        <v>-0.06952000024627919</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1041960437528448</v>
+      </c>
+      <c r="F44">
+        <v>-0.006231936770617777</v>
+      </c>
+      <c r="G44">
+        <v>-0.004617705283483172</v>
+      </c>
+      <c r="H44">
+        <v>-0.02973503810058693</v>
+      </c>
+      <c r="I44">
+        <v>-0.02769001971510029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1999,196 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.003667654189458607</v>
+        <v>0.001446129580891773</v>
       </c>
       <c r="C46">
-        <v>-0.04330802772072718</v>
+        <v>0.05755325205360481</v>
       </c>
       <c r="D46">
-        <v>-0.06264685761527251</v>
+        <v>0.01058886938802048</v>
       </c>
       <c r="E46">
-        <v>-0.08933747413261421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.08023539803170178</v>
+      </c>
+      <c r="F46">
+        <v>-0.005343538374864018</v>
+      </c>
+      <c r="G46">
+        <v>0.05064697423917278</v>
+      </c>
+      <c r="H46">
+        <v>-0.121760743445283</v>
+      </c>
+      <c r="I46">
+        <v>-0.0157416862759874</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.01974952669461883</v>
+        <v>-0.02202909085258688</v>
       </c>
       <c r="C47">
-        <v>-0.1173818195294503</v>
+        <v>0.1064875779117985</v>
       </c>
       <c r="D47">
-        <v>0.003976736399432226</v>
+        <v>0.02164541166659697</v>
       </c>
       <c r="E47">
-        <v>0.02498017533304493</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007525118367917323</v>
+      </c>
+      <c r="F47">
+        <v>-0.01313512825001363</v>
+      </c>
+      <c r="G47">
+        <v>-0.002072099086187826</v>
+      </c>
+      <c r="H47">
+        <v>-0.07675793963032457</v>
+      </c>
+      <c r="I47">
+        <v>0.03183588253801323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006911515550722168</v>
+        <v>-0.01496543876945443</v>
       </c>
       <c r="C48">
-        <v>-0.0331691916553531</v>
+        <v>0.04799823725641994</v>
       </c>
       <c r="D48">
-        <v>-0.03149388276576109</v>
+        <v>0.02913691707689826</v>
       </c>
       <c r="E48">
-        <v>-0.08084285962998602</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.07268556941038043</v>
+      </c>
+      <c r="F48">
+        <v>-0.009984077452705692</v>
+      </c>
+      <c r="G48">
+        <v>0.01698359074242872</v>
+      </c>
+      <c r="H48">
+        <v>-0.1239804626343692</v>
+      </c>
+      <c r="I48">
+        <v>-0.002911945096793331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.003981301616691453</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.008343219463830008</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.007861256037827405</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.001068982320110115</v>
+      </c>
+      <c r="F49">
+        <v>0.004468279083938856</v>
+      </c>
+      <c r="G49">
+        <v>0.02100103629905834</v>
+      </c>
+      <c r="H49">
+        <v>0.006155300847005707</v>
+      </c>
+      <c r="I49">
+        <v>0.001373754709094067</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.003256205571105474</v>
+        <v>-0.009252527705343131</v>
       </c>
       <c r="C50">
-        <v>-0.05940493344209383</v>
+        <v>0.0734243374663401</v>
       </c>
       <c r="D50">
-        <v>-0.01983573102032644</v>
+        <v>0.002565409372908637</v>
       </c>
       <c r="E50">
-        <v>-0.02485418999384953</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.02505480691720852</v>
+      </c>
+      <c r="F50">
+        <v>-0.01175756268208112</v>
+      </c>
+      <c r="G50">
+        <v>-0.0135307344630157</v>
+      </c>
+      <c r="H50">
+        <v>-0.05869861733347434</v>
+      </c>
+      <c r="I50">
+        <v>0.04475856643100796</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004138364118316902</v>
+        <v>0.004792927973824574</v>
       </c>
       <c r="C51">
-        <v>-0.02997862380621156</v>
+        <v>0.03536638907938142</v>
       </c>
       <c r="D51">
-        <v>-0.0820794625929208</v>
+        <v>-0.0003609242526667358</v>
       </c>
       <c r="E51">
-        <v>-0.06247887851759527</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.06389082037763627</v>
+      </c>
+      <c r="F51">
+        <v>0.007078799087399906</v>
+      </c>
+      <c r="G51">
+        <v>-0.004220179788045926</v>
+      </c>
+      <c r="H51">
+        <v>-0.1075399933470384</v>
+      </c>
+      <c r="I51">
+        <v>-0.02993427321495587</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.05761718224861902</v>
+        <v>-0.05499456670301551</v>
       </c>
       <c r="C53">
-        <v>-0.1659555386019866</v>
+        <v>0.1567890219663984</v>
       </c>
       <c r="D53">
-        <v>0.04562639493115281</v>
+        <v>0.04525939026248852</v>
       </c>
       <c r="E53">
-        <v>0.02343123061542288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.08018199842872618</v>
+      </c>
+      <c r="F53">
+        <v>-0.007428606764104301</v>
+      </c>
+      <c r="G53">
+        <v>-0.02753844516160601</v>
+      </c>
+      <c r="H53">
+        <v>-0.01337664429199358</v>
+      </c>
+      <c r="I53">
+        <v>0.02029897218011911</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.005475256466190194</v>
+        <v>-0.01369630094922173</v>
       </c>
       <c r="C54">
-        <v>-0.04208864122149523</v>
+        <v>0.06134796179012576</v>
       </c>
       <c r="D54">
-        <v>-0.06427220576975597</v>
+        <v>-0.0205086105112899</v>
       </c>
       <c r="E54">
-        <v>-0.01615499694827694</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.05080624488987145</v>
+      </c>
+      <c r="F54">
+        <v>-0.01145268854839647</v>
+      </c>
+      <c r="G54">
+        <v>0.007728448129667082</v>
+      </c>
+      <c r="H54">
+        <v>-0.09177908340715335</v>
+      </c>
+      <c r="I54">
+        <v>-0.03573287912852231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.04117477646487379</v>
+        <v>-0.03356204727390743</v>
       </c>
       <c r="C55">
-        <v>-0.1305719491722899</v>
+        <v>0.1146064551660032</v>
       </c>
       <c r="D55">
-        <v>0.04653324013476742</v>
+        <v>0.05021073543400675</v>
       </c>
       <c r="E55">
-        <v>0.005901225446986262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06520854137636589</v>
+      </c>
+      <c r="F55">
+        <v>0.003942598756453178</v>
+      </c>
+      <c r="G55">
+        <v>-0.02017555196801344</v>
+      </c>
+      <c r="H55">
+        <v>-0.02161761065921642</v>
+      </c>
+      <c r="I55">
+        <v>-0.01679584497399897</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.05886275129015713</v>
+        <v>-0.04916957127945867</v>
       </c>
       <c r="C56">
-        <v>-0.1933855405923982</v>
+        <v>0.1821411687618323</v>
       </c>
       <c r="D56">
-        <v>0.06279763715870046</v>
+        <v>0.06729236991945914</v>
       </c>
       <c r="E56">
-        <v>0.04995971307946845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1057900429175419</v>
+      </c>
+      <c r="F56">
+        <v>0.003548067206374608</v>
+      </c>
+      <c r="G56">
+        <v>-0.06494083707809542</v>
+      </c>
+      <c r="H56">
+        <v>0.0007975269534330015</v>
+      </c>
+      <c r="I56">
+        <v>0.02033029913546568</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2347,370 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.007711745205134278</v>
+        <v>-0.006671868904556778</v>
       </c>
       <c r="C58">
-        <v>-0.1087635787851349</v>
+        <v>0.1407424682838526</v>
       </c>
       <c r="D58">
-        <v>-0.2971768986945525</v>
+        <v>-0.0585019786153979</v>
       </c>
       <c r="E58">
-        <v>-0.09950720831869665</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2592312432983899</v>
+      </c>
+      <c r="F58">
+        <v>-0.03874637811919714</v>
+      </c>
+      <c r="G58">
+        <v>-0.2429393333797413</v>
+      </c>
+      <c r="H58">
+        <v>0.004776796905411379</v>
+      </c>
+      <c r="I58">
+        <v>-0.01478816717511801</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2501089517105748</v>
+        <v>-0.2718679069840944</v>
       </c>
       <c r="C59">
-        <v>0.04011836777800774</v>
+        <v>-0.03878954942000166</v>
       </c>
       <c r="D59">
-        <v>-0.07781844549328841</v>
+        <v>-0.0167360394703597</v>
       </c>
       <c r="E59">
-        <v>0.0005162555507669984</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04665893472933884</v>
+      </c>
+      <c r="F59">
+        <v>0.02044718764250024</v>
+      </c>
+      <c r="G59">
+        <v>-0.01377147825442099</v>
+      </c>
+      <c r="H59">
+        <v>0.02177728737921876</v>
+      </c>
+      <c r="I59">
+        <v>0.1004325035266949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1207448122681031</v>
+        <v>-0.1452349944831102</v>
       </c>
       <c r="C60">
-        <v>-0.1496623184095509</v>
+        <v>0.1614864900429982</v>
       </c>
       <c r="D60">
-        <v>-0.01478940141327681</v>
+        <v>0.01368798576237027</v>
       </c>
       <c r="E60">
-        <v>-0.04718207942288604</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.02636916255938091</v>
+      </c>
+      <c r="F60">
+        <v>0.07340972741348056</v>
+      </c>
+      <c r="G60">
+        <v>0.2876174629075824</v>
+      </c>
+      <c r="H60">
+        <v>0.2780497291799905</v>
+      </c>
+      <c r="I60">
+        <v>-0.04996171130222154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.006030981082328198</v>
+        <v>-0.01404167173977589</v>
       </c>
       <c r="C61">
-        <v>-0.07346863589845579</v>
+        <v>0.09644161828923811</v>
       </c>
       <c r="D61">
-        <v>-0.04923576493391631</v>
+        <v>0.01436811657153465</v>
       </c>
       <c r="E61">
-        <v>-0.0544698667846438</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.05952401982868245</v>
+      </c>
+      <c r="F61">
+        <v>-0.007555413955588386</v>
+      </c>
+      <c r="G61">
+        <v>0.05417610851995974</v>
+      </c>
+      <c r="H61">
+        <v>-0.05773304829252898</v>
+      </c>
+      <c r="I61">
+        <v>-0.01492691056935656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0006544530785485255</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005405228012531776</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.001330548693128366</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.00058557752311762</v>
+      </c>
+      <c r="F62">
+        <v>-0.0007750542183170291</v>
+      </c>
+      <c r="G62">
+        <v>-0.002893121488297506</v>
+      </c>
+      <c r="H62">
+        <v>-0.005447341000731783</v>
+      </c>
+      <c r="I62">
+        <v>0.002231225891521217</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.006510543192205572</v>
+        <v>-0.01575959403529474</v>
       </c>
       <c r="C63">
-        <v>-0.05025557275676841</v>
+        <v>0.06812847798450571</v>
       </c>
       <c r="D63">
-        <v>-0.04132171136410252</v>
+        <v>0.01955446339016479</v>
       </c>
       <c r="E63">
-        <v>-0.03220443632143962</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05605221193576408</v>
+      </c>
+      <c r="F63">
+        <v>-0.001247809625259583</v>
+      </c>
+      <c r="G63">
+        <v>0.03456999260851264</v>
+      </c>
+      <c r="H63">
+        <v>-0.07671414017424241</v>
+      </c>
+      <c r="I63">
+        <v>0.01785511788058691</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.01756061769900114</v>
+        <v>-0.01528778367807743</v>
       </c>
       <c r="C64">
-        <v>-0.1314851787370781</v>
+        <v>0.1146381396362721</v>
       </c>
       <c r="D64">
-        <v>0.008924536698732752</v>
+        <v>0.02191410205598205</v>
       </c>
       <c r="E64">
-        <v>-0.05226320828971978</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01128617581860158</v>
+      </c>
+      <c r="F64">
+        <v>-0.02404064077610108</v>
+      </c>
+      <c r="G64">
+        <v>0.01966454556689736</v>
+      </c>
+      <c r="H64">
+        <v>0.00305527030909452</v>
+      </c>
+      <c r="I64">
+        <v>-0.001682345409520578</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01564522591983766</v>
+        <v>-0.02388643587847217</v>
       </c>
       <c r="C65">
-        <v>-0.06054952996170178</v>
+        <v>0.08095450986107505</v>
       </c>
       <c r="D65">
-        <v>-0.0728319805215831</v>
+        <v>-0.01792973421342096</v>
       </c>
       <c r="E65">
-        <v>-0.05852074549976245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.09761589347649824</v>
+      </c>
+      <c r="F65">
+        <v>-0.01604470067351528</v>
+      </c>
+      <c r="G65">
+        <v>0.06980381288644602</v>
+      </c>
+      <c r="H65">
+        <v>0.006747370626122732</v>
+      </c>
+      <c r="I65">
+        <v>-0.03232153922960807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.0006735091550264194</v>
+        <v>-0.006437678670558618</v>
       </c>
       <c r="C66">
-        <v>-0.1140945215552335</v>
+        <v>0.1418320234638617</v>
       </c>
       <c r="D66">
-        <v>-0.1245373332114426</v>
+        <v>-0.01290013394098434</v>
       </c>
       <c r="E66">
-        <v>-0.07827782940567679</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.1024282553028379</v>
+      </c>
+      <c r="F66">
+        <v>-0.002774759139599989</v>
+      </c>
+      <c r="G66">
+        <v>0.02633067213311245</v>
+      </c>
+      <c r="H66">
+        <v>-0.04969397830281484</v>
+      </c>
+      <c r="I66">
+        <v>-0.03606358477382211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01287752910365464</v>
+        <v>-0.01533080578621405</v>
       </c>
       <c r="C67">
-        <v>-0.02954963017641045</v>
+        <v>0.05029220932073883</v>
       </c>
       <c r="D67">
-        <v>0.00250835782655247</v>
+        <v>0.01980550234955802</v>
       </c>
       <c r="E67">
-        <v>-0.036932086485543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03958226558479438</v>
+      </c>
+      <c r="F67">
+        <v>-0.04194782582422483</v>
+      </c>
+      <c r="G67">
+        <v>0.03479624270203822</v>
+      </c>
+      <c r="H67">
+        <v>-0.04111169288663851</v>
+      </c>
+      <c r="I67">
+        <v>0.02547513098517293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2512520176269781</v>
+        <v>-0.2830129118783204</v>
       </c>
       <c r="C68">
-        <v>0.04650249696175857</v>
+        <v>-0.04442726332296466</v>
       </c>
       <c r="D68">
-        <v>-0.05252739514825803</v>
+        <v>-0.03685524435849011</v>
       </c>
       <c r="E68">
-        <v>0.008590976273032352</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.03716939093155599</v>
+      </c>
+      <c r="F68">
+        <v>-0.004367731288966054</v>
+      </c>
+      <c r="G68">
+        <v>-0.05698470661993664</v>
+      </c>
+      <c r="H68">
+        <v>0.02359387560256031</v>
+      </c>
+      <c r="I68">
+        <v>0.1040857829869103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.01819099015482334</v>
+        <v>-0.01010995609903259</v>
       </c>
       <c r="C69">
-        <v>-0.1210103372830581</v>
+        <v>0.09374434229397625</v>
       </c>
       <c r="D69">
-        <v>0.01535558761862679</v>
+        <v>0.02279833367905574</v>
       </c>
       <c r="E69">
-        <v>-0.0243712803863006</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01197312721703908</v>
+      </c>
+      <c r="F69">
+        <v>-0.01267020361378535</v>
+      </c>
+      <c r="G69">
+        <v>0.00306458691679706</v>
+      </c>
+      <c r="H69">
+        <v>-0.04835139148202666</v>
+      </c>
+      <c r="I69">
+        <v>0.03633413922053225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2646645014370553</v>
+        <v>-0.270406986757774</v>
       </c>
       <c r="C71">
-        <v>0.07065155419794686</v>
+        <v>-0.06805820724927179</v>
       </c>
       <c r="D71">
-        <v>-0.04744379952353479</v>
+        <v>-0.02135554470078269</v>
       </c>
       <c r="E71">
-        <v>0.03480933086311859</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03510488504961033</v>
+      </c>
+      <c r="F71">
+        <v>-0.02931502754518088</v>
+      </c>
+      <c r="G71">
+        <v>-0.01475342884960435</v>
+      </c>
+      <c r="H71">
+        <v>-0.06538342794795431</v>
+      </c>
+      <c r="I71">
+        <v>0.1209585127869035</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.06001895928809912</v>
+        <v>-0.05827144540651927</v>
       </c>
       <c r="C72">
-        <v>-0.1577686371274612</v>
+        <v>0.1526986044412742</v>
       </c>
       <c r="D72">
-        <v>-0.04134401747494967</v>
+        <v>0.008537059993499817</v>
       </c>
       <c r="E72">
-        <v>-0.1117269053287919</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.02071646077863831</v>
+      </c>
+      <c r="F72">
+        <v>0.006617412841294554</v>
+      </c>
+      <c r="G72">
+        <v>0.04471186509503242</v>
+      </c>
+      <c r="H72">
+        <v>0.0428205108499851</v>
+      </c>
+      <c r="I72">
+        <v>-0.0864715527138272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1101201773237321</v>
+        <v>-0.146352284777058</v>
       </c>
       <c r="C73">
-        <v>-0.1671931453341765</v>
+        <v>0.2004197127142273</v>
       </c>
       <c r="D73">
-        <v>-0.0002390186470461346</v>
+        <v>0.03065877178964898</v>
       </c>
       <c r="E73">
-        <v>-0.06866754888238677</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.03147039475268591</v>
+      </c>
+      <c r="F73">
+        <v>0.07569594748132462</v>
+      </c>
+      <c r="G73">
+        <v>0.4466739274373863</v>
+      </c>
+      <c r="H73">
+        <v>0.2729998294430463</v>
+      </c>
+      <c r="I73">
+        <v>0.01751392492408477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.04570692497476107</v>
+        <v>-0.0414161097493286</v>
       </c>
       <c r="C74">
-        <v>-0.1282641290446665</v>
+        <v>0.1212407422612331</v>
       </c>
       <c r="D74">
-        <v>0.06838478914165375</v>
+        <v>0.04678093467475288</v>
       </c>
       <c r="E74">
-        <v>0.00926098780312431</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.067235900488677</v>
+      </c>
+      <c r="F74">
+        <v>-0.01465294758188304</v>
+      </c>
+      <c r="G74">
+        <v>-0.01620163742395385</v>
+      </c>
+      <c r="H74">
+        <v>-0.01818523462562906</v>
+      </c>
+      <c r="I74">
+        <v>-0.01030319683988565</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1068257519596425</v>
+        <v>-0.0737877357306871</v>
       </c>
       <c r="C75">
-        <v>-0.2607508291857167</v>
+        <v>0.2281039638920694</v>
       </c>
       <c r="D75">
-        <v>0.1665855483539391</v>
+        <v>0.096716975326677</v>
       </c>
       <c r="E75">
-        <v>0.07385000560741897</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2112245177439113</v>
+      </c>
+      <c r="F75">
+        <v>-0.08006058358983004</v>
+      </c>
+      <c r="G75">
+        <v>-0.08268760738220707</v>
+      </c>
+      <c r="H75">
+        <v>0.01528415137989903</v>
+      </c>
+      <c r="I75">
+        <v>0.06898342587705228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.04954144018243144</v>
+        <v>-0.04248274164886127</v>
       </c>
       <c r="C76">
-        <v>-0.1669219476616382</v>
+        <v>0.1582993503441737</v>
       </c>
       <c r="D76">
-        <v>0.08348913571435741</v>
+        <v>0.07302971138045823</v>
       </c>
       <c r="E76">
-        <v>0.02320050422597713</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.09257761362357642</v>
+      </c>
+      <c r="F76">
+        <v>-0.003886539424540428</v>
+      </c>
+      <c r="G76">
+        <v>0.0006782961119171868</v>
+      </c>
+      <c r="H76">
+        <v>-0.02357469088854455</v>
+      </c>
+      <c r="I76">
+        <v>0.006538226428092171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02073300152834127</v>
+        <v>-0.01991172523933831</v>
       </c>
       <c r="C77">
-        <v>-0.1203705795391619</v>
+        <v>0.1983486101543332</v>
       </c>
       <c r="D77">
-        <v>-0.4721756898737087</v>
+        <v>-0.9387350722173218</v>
       </c>
       <c r="E77">
-        <v>0.7995372849865174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.2429288257798517</v>
+      </c>
+      <c r="F77">
+        <v>-0.02576656090456497</v>
+      </c>
+      <c r="G77">
+        <v>0.02590185903035652</v>
+      </c>
+      <c r="H77">
+        <v>-0.04941594086346864</v>
+      </c>
+      <c r="I77">
+        <v>-0.02890861907504626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.01727440784536136</v>
+        <v>-0.02333845130800518</v>
       </c>
       <c r="C78">
-        <v>-0.1141438896465966</v>
+        <v>0.1137083790033844</v>
       </c>
       <c r="D78">
-        <v>-0.1276493397635733</v>
+        <v>0.03511999969293377</v>
       </c>
       <c r="E78">
-        <v>-0.07518485124918856</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.08262908823744229</v>
+      </c>
+      <c r="F78">
+        <v>0.0252762745279102</v>
+      </c>
+      <c r="G78">
+        <v>-0.07255044301814909</v>
+      </c>
+      <c r="H78">
+        <v>-0.1400817679910008</v>
+      </c>
+      <c r="I78">
+        <v>-0.1232026028538027</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09075847790458626</v>
+        <v>-0.0681128815377619</v>
       </c>
       <c r="C79">
-        <v>-0.2880363766927581</v>
+        <v>0.2258170446371661</v>
       </c>
       <c r="D79">
-        <v>0.1965406446353765</v>
+        <v>0.09311467524410395</v>
       </c>
       <c r="E79">
-        <v>0.09080467088674198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.2287712179830415</v>
+      </c>
+      <c r="F79">
+        <v>0.00555771552025131</v>
+      </c>
+      <c r="G79">
+        <v>-0.1665774403464842</v>
+      </c>
+      <c r="H79">
+        <v>-0.04039575299359011</v>
+      </c>
+      <c r="I79">
+        <v>0.05338626207998413</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.01029736938966986</v>
+        <v>-0.007241233150640827</v>
       </c>
       <c r="C80">
-        <v>-0.06087809472460364</v>
+        <v>0.05944148535504953</v>
       </c>
       <c r="D80">
-        <v>-0.005120909193269052</v>
+        <v>0.02957642463460682</v>
       </c>
       <c r="E80">
-        <v>-0.04607580719186198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0513352835073048</v>
+      </c>
+      <c r="F80">
+        <v>0.06424921931519943</v>
+      </c>
+      <c r="G80">
+        <v>0.04901565272805364</v>
+      </c>
+      <c r="H80">
+        <v>0.03834523228003298</v>
+      </c>
+      <c r="I80">
+        <v>0.04878787846857473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.04536433319983593</v>
+        <v>-0.02582966334618199</v>
       </c>
       <c r="C81">
-        <v>-0.1521916036258054</v>
+        <v>0.137687197131945</v>
       </c>
       <c r="D81">
-        <v>0.1003437556785303</v>
+        <v>0.04829057710272332</v>
       </c>
       <c r="E81">
-        <v>0.05356874116842714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.09350694815857871</v>
+      </c>
+      <c r="F81">
+        <v>-0.01554360400663407</v>
+      </c>
+      <c r="G81">
+        <v>-0.05426494557598428</v>
+      </c>
+      <c r="H81">
+        <v>-0.06363460080569038</v>
+      </c>
+      <c r="I81">
+        <v>0.07056353192823778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.08501798938369957</v>
+        <v>-0.05841147533539198</v>
       </c>
       <c r="C82">
-        <v>-0.2348576661353679</v>
+        <v>0.1840700377260367</v>
       </c>
       <c r="D82">
-        <v>0.137699429106208</v>
+        <v>0.09030472775240955</v>
       </c>
       <c r="E82">
-        <v>0.04582529065831343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1500186714275248</v>
+      </c>
+      <c r="F82">
+        <v>0.001141787891740452</v>
+      </c>
+      <c r="G82">
+        <v>-0.04027024640147584</v>
+      </c>
+      <c r="H82">
+        <v>-0.03922986314434634</v>
+      </c>
+      <c r="I82">
+        <v>0.05551126473197249</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.007681945370100127</v>
+        <v>-0.0002609576829373742</v>
       </c>
       <c r="C83">
-        <v>-0.0632911442884458</v>
+        <v>0.0206499689209381</v>
       </c>
       <c r="D83">
-        <v>-0.05487204878592359</v>
+        <v>-0.03361578603594098</v>
       </c>
       <c r="E83">
-        <v>-0.009683291143551731</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.002435725857435576</v>
+      </c>
+      <c r="F83">
+        <v>0.9466057181575565</v>
+      </c>
+      <c r="G83">
+        <v>-0.1524120668889506</v>
+      </c>
+      <c r="H83">
+        <v>0.0242791308916108</v>
+      </c>
+      <c r="I83">
+        <v>0.1140352532726775</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.003870048340163785</v>
+        <v>0.002530297746372263</v>
       </c>
       <c r="C84">
-        <v>-0.02084051622402019</v>
+        <v>0.03245085147564244</v>
       </c>
       <c r="D84">
-        <v>-0.04028532382129393</v>
+        <v>0.03337471141330525</v>
       </c>
       <c r="E84">
-        <v>-0.0621092209076741</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.06909318181461072</v>
+      </c>
+      <c r="F84">
+        <v>-0.0421817686386865</v>
+      </c>
+      <c r="G84">
+        <v>-0.07674294034247973</v>
+      </c>
+      <c r="H84">
+        <v>-0.06359624651509212</v>
+      </c>
+      <c r="I84">
+        <v>-0.05289671714961508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.0513146042297234</v>
+        <v>-0.03803250651606802</v>
       </c>
       <c r="C85">
-        <v>-0.1905758204082027</v>
+        <v>0.1624663789315999</v>
       </c>
       <c r="D85">
-        <v>0.1317222135381386</v>
+        <v>0.09243589933029975</v>
       </c>
       <c r="E85">
-        <v>0.04205716535774703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1530995992612524</v>
+      </c>
+      <c r="F85">
+        <v>-0.007104094330522033</v>
+      </c>
+      <c r="G85">
+        <v>-0.06543722035575346</v>
+      </c>
+      <c r="H85">
+        <v>-0.01766328224668038</v>
+      </c>
+      <c r="I85">
+        <v>0.03958603837292887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01688161532768074</v>
+        <v>-0.01311832844730455</v>
       </c>
       <c r="C86">
-        <v>-0.04165356328413753</v>
+        <v>0.0673935576703197</v>
       </c>
       <c r="D86">
-        <v>-0.09775448191759872</v>
+        <v>-0.02227872243027222</v>
       </c>
       <c r="E86">
-        <v>0.04493315870492683</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.06393789073717494</v>
+      </c>
+      <c r="F86">
+        <v>-0.03481598134411545</v>
+      </c>
+      <c r="G86">
+        <v>-0.07880418707822007</v>
+      </c>
+      <c r="H86">
+        <v>-0.071534025007733</v>
+      </c>
+      <c r="I86">
+        <v>0.07879369061578137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02322320416771769</v>
+        <v>-0.01611917654556949</v>
       </c>
       <c r="C87">
-        <v>-0.09555377711009022</v>
+        <v>0.1119831070809602</v>
       </c>
       <c r="D87">
-        <v>-0.1505409357136604</v>
+        <v>-0.0371649283097561</v>
       </c>
       <c r="E87">
-        <v>-0.07595615777072075</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1138918328670816</v>
+      </c>
+      <c r="F87">
+        <v>-0.009520436590217953</v>
+      </c>
+      <c r="G87">
+        <v>-0.05198032661819749</v>
+      </c>
+      <c r="H87">
+        <v>-0.02587052631962239</v>
+      </c>
+      <c r="I87">
+        <v>-0.1438699554375038</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.02275296900873285</v>
+        <v>-0.03301410754565713</v>
       </c>
       <c r="C88">
-        <v>-0.07744341081883981</v>
+        <v>0.0827645314171017</v>
       </c>
       <c r="D88">
-        <v>0.04302801597087336</v>
+        <v>0.02336732839262703</v>
       </c>
       <c r="E88">
-        <v>-0.007494905728957319</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.005782180747949478</v>
+      </c>
+      <c r="F88">
+        <v>-0.0086656314079664</v>
+      </c>
+      <c r="G88">
+        <v>0.02507271166563726</v>
+      </c>
+      <c r="H88">
+        <v>-0.009807070907007841</v>
+      </c>
+      <c r="I88">
+        <v>0.02870660507381899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.4518743760529533</v>
+        <v>-0.4140941840003298</v>
       </c>
       <c r="C89">
-        <v>0.1402487538547821</v>
+        <v>-0.1280584228528079</v>
       </c>
       <c r="D89">
-        <v>0.01466950629193547</v>
+        <v>-0.007933967789310032</v>
       </c>
       <c r="E89">
-        <v>-0.2416905486764557</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.03691924287225876</v>
+      </c>
+      <c r="F89">
+        <v>0.09178804053104848</v>
+      </c>
+      <c r="G89">
+        <v>-0.09818564037709719</v>
+      </c>
+      <c r="H89">
+        <v>-0.05408724559560014</v>
+      </c>
+      <c r="I89">
+        <v>-0.7837556711198512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3215289179234412</v>
+        <v>-0.3230050192836644</v>
       </c>
       <c r="C90">
-        <v>0.09167115767015041</v>
+        <v>-0.07717128035182162</v>
       </c>
       <c r="D90">
-        <v>-0.08827453115398365</v>
+        <v>-0.02519394036090856</v>
       </c>
       <c r="E90">
-        <v>0.001113917664663261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.0494632123992967</v>
+      </c>
+      <c r="F90">
+        <v>-0.00911476700671531</v>
+      </c>
+      <c r="G90">
+        <v>-0.01896600680322916</v>
+      </c>
+      <c r="H90">
+        <v>0.01686336953240763</v>
+      </c>
+      <c r="I90">
+        <v>0.1582826246386723</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.06054747856092112</v>
+        <v>-0.05510867963777672</v>
       </c>
       <c r="C91">
-        <v>-0.1824695560137031</v>
+        <v>0.1483517704252674</v>
       </c>
       <c r="D91">
-        <v>0.1064259347878853</v>
+        <v>0.05182777933894661</v>
       </c>
       <c r="E91">
-        <v>0.06503262416520238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.1310734554930642</v>
+      </c>
+      <c r="F91">
+        <v>0.0257565755689374</v>
+      </c>
+      <c r="G91">
+        <v>-0.05083818632072431</v>
+      </c>
+      <c r="H91">
+        <v>-0.01207714697308865</v>
+      </c>
+      <c r="I91">
+        <v>0.03061309260379541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3371956938304085</v>
+        <v>-0.3467933075435266</v>
       </c>
       <c r="C92">
-        <v>0.1355083440330579</v>
+        <v>-0.1239425167818072</v>
       </c>
       <c r="D92">
-        <v>-0.06042790571843558</v>
+        <v>-0.05028604345899361</v>
       </c>
       <c r="E92">
-        <v>0.05295189318475495</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.04907057436780888</v>
+      </c>
+      <c r="F92">
+        <v>-0.09272716642746616</v>
+      </c>
+      <c r="G92">
+        <v>-0.03227040304244668</v>
+      </c>
+      <c r="H92">
+        <v>-0.03916972798265241</v>
+      </c>
+      <c r="I92">
+        <v>0.1651616217055892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3371886773116385</v>
+        <v>-0.3271478368008231</v>
       </c>
       <c r="C93">
-        <v>0.1143006914671145</v>
+        <v>-0.1143607795877009</v>
       </c>
       <c r="D93">
-        <v>0.009004594166598219</v>
+        <v>0.005899098051759023</v>
       </c>
       <c r="E93">
-        <v>0.01827653626055246</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.007747522290947599</v>
+      </c>
+      <c r="F93">
+        <v>-0.01804536815897324</v>
+      </c>
+      <c r="G93">
+        <v>-0.03627169810359535</v>
+      </c>
+      <c r="H93">
+        <v>-0.04056468289900487</v>
+      </c>
+      <c r="I93">
+        <v>0.1045312123564783</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1199142746015466</v>
+        <v>-0.09505230234982005</v>
       </c>
       <c r="C94">
-        <v>-0.3042560330778952</v>
+        <v>0.2516923662419234</v>
       </c>
       <c r="D94">
-        <v>0.2621854332534104</v>
+        <v>0.1486080271982738</v>
       </c>
       <c r="E94">
-        <v>0.08431071193993037</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3659278348204105</v>
+      </c>
+      <c r="F94">
+        <v>-0.0179928851920325</v>
+      </c>
+      <c r="G94">
+        <v>-0.2531759329513637</v>
+      </c>
+      <c r="H94">
+        <v>0.1223440244094636</v>
+      </c>
+      <c r="I94">
+        <v>-0.1672803195833914</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03042648856002524</v>
+        <v>-0.03431062763321097</v>
       </c>
       <c r="C95">
-        <v>-0.06591655655529043</v>
+        <v>0.1089821184110752</v>
       </c>
       <c r="D95">
-        <v>-0.009293796938963487</v>
+        <v>-0.005195059317926769</v>
       </c>
       <c r="E95">
-        <v>-0.01855440637048964</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.03649272703811131</v>
+      </c>
+      <c r="F95">
+        <v>-0.04037750965004978</v>
+      </c>
+      <c r="G95">
+        <v>0.1249365174120261</v>
+      </c>
+      <c r="H95">
+        <v>-0.05823975497792519</v>
+      </c>
+      <c r="I95">
+        <v>0.0003917662485819207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.003199698274214408</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.003001304902680928</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.02035701269284101</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.006496567645623015</v>
+      </c>
+      <c r="F97">
+        <v>-0.01933571895254433</v>
+      </c>
+      <c r="G97">
+        <v>0.007612251343756981</v>
+      </c>
+      <c r="H97">
+        <v>-0.005903516030452598</v>
+      </c>
+      <c r="I97">
+        <v>0.02377455538660157</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.08454663756263811</v>
+        <v>-0.1252440425417028</v>
       </c>
       <c r="C98">
-        <v>-0.1277132163318608</v>
+        <v>0.1581580769513686</v>
       </c>
       <c r="D98">
-        <v>-0.05735392142326171</v>
+        <v>0.03079364234101619</v>
       </c>
       <c r="E98">
-        <v>-0.07058976581488899</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06674055400770838</v>
+      </c>
+      <c r="F98">
+        <v>0.04076965817975214</v>
+      </c>
+      <c r="G98">
+        <v>0.3926881286389576</v>
+      </c>
+      <c r="H98">
+        <v>0.325363293009855</v>
+      </c>
+      <c r="I98">
+        <v>-0.03739097145528789</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.0005974672080479111</v>
+        <v>-0.004031072679610621</v>
       </c>
       <c r="C101">
-        <v>-0.0323294948793006</v>
+        <v>0.06161168004187523</v>
       </c>
       <c r="D101">
-        <v>-0.07320061781689506</v>
+        <v>0.004277295112339862</v>
       </c>
       <c r="E101">
-        <v>-0.08220280806105433</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1194734099227196</v>
+      </c>
+      <c r="F101">
+        <v>0.03249828220903528</v>
+      </c>
+      <c r="G101">
+        <v>0.08944669675874259</v>
+      </c>
+      <c r="H101">
+        <v>-0.1992540617890574</v>
+      </c>
+      <c r="I101">
+        <v>-0.05698228836536098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.03621895332071865</v>
+        <v>-0.01451854896780783</v>
       </c>
       <c r="C102">
-        <v>-0.1208429863616631</v>
+        <v>0.06772104597712823</v>
       </c>
       <c r="D102">
-        <v>0.06600498178281033</v>
+        <v>0.03265741975289344</v>
       </c>
       <c r="E102">
-        <v>0.02067276959921977</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.08092108665179248</v>
+      </c>
+      <c r="F102">
+        <v>0.01456837810567468</v>
+      </c>
+      <c r="G102">
+        <v>-0.03780888171073366</v>
+      </c>
+      <c r="H102">
+        <v>-0.003502940238036787</v>
+      </c>
+      <c r="I102">
+        <v>-0.008079999544904922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
